--- a/medicine/Sexualité et sexologie/Alphonse_Momas/Alphonse_Momas.xlsx
+++ b/medicine/Sexualité et sexologie/Alphonse_Momas/Alphonse_Momas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse Momas, né à Nîmes le 4 août 1846 et mort le 25 juin 1933 à Paris, est un écrivain et fonctionnaire français.
 </t>
@@ -511,9 +523,11 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonctionnaire à la préfecture de la Seine au début des années 1890, il écrivit un très grand nombre de romans érotiques sous divers pseudonymes : Bébé, Caïn d’Abel, Clic-Clac, L’Érotin, Fuckwell, Le Nismois, Léna de Mauregard, Camille Mireille, Mercadette, Pan-Pan, Tap-Tap, Trix, Un Journaliste du Siècle dernier, Zéphyr, Baron C***[1], Madame B***, V. d’Andorre, Georges de Lesbos, Erosmane, La Baronne de Saint-Amand, et fut le plus prolifique des écrivains pornographiques des années 1890. Dès 1915, il publia à son compte des brochures théosophiques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonctionnaire à la préfecture de la Seine au début des années 1890, il écrivit un très grand nombre de romans érotiques sous divers pseudonymes : Bébé, Caïn d’Abel, Clic-Clac, L’Érotin, Fuckwell, Le Nismois, Léna de Mauregard, Camille Mireille, Mercadette, Pan-Pan, Tap-Tap, Trix, Un Journaliste du Siècle dernier, Zéphyr, Baron C***, Madame B***, V. d’Andorre, Georges de Lesbos, Erosmane, La Baronne de Saint-Amand, et fut le plus prolifique des écrivains pornographiques des années 1890. Dès 1915, il publia à son compte des brochures théosophiques.
 </t>
         </is>
       </c>
